--- a/biology/Zoologie/Acrosternum/Acrosternum.xlsx
+++ b/biology/Zoologie/Acrosternum/Acrosternum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrosternum est un genre d'insectes du sous-ordre des hétéroptères (punaises) et de la famille des pentatomidés. 
 </t>
@@ -511,12 +523,52 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologiste tchèque Franz Xaver Fieber en 1860.
-Taxinomie
-Liste des espèces
-Acrosternum apicale Linnavuori, 1975
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par l'entomologiste tchèque Franz Xaver Fieber en 1860.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acrosternum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acrosternum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acrosternum apicale Linnavuori, 1975
 Acrosternum arabicum Wagner, 1959
 Acrosternum breviceps (Jakovlev, 1889)
 Acrosternum curticeps Linnavuori &amp; Al-Safadi, 1993
@@ -530,9 +582,47 @@
 Acrosternum millierei (Mulsant &amp; Rey, 1866)
 Acrosternum prunasis (Dallas)
 Acrosternum pusniensis Ahmad &amp; Rana, 1989
-Acrosternum rubescens (Noualhier, 1893)
-Espèces rencontrées en Europe
-Selon Fauna Europaea                                      (28 octobre 2021)[1] :
+Acrosternum rubescens (Noualhier, 1893)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acrosternum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acrosternum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (28 octobre 2021) :
 Acrosternum arabicum Wagner, 1959
 Acrosternum heegeri Fieber, 1861
 Acrosternum malickyi Josifov &amp; Heiss, 1989
